--- a/data/trans_media/IQ27A-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ27A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>111,83; 137,73</t>
+          <t>111,77; 138,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>127,1; 154,17</t>
+          <t>125,73; 153,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>108,54; 132,66</t>
+          <t>107,75; 131,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>108,09; 141,56</t>
+          <t>109,94; 139,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>127,31; 146,52</t>
+          <t>128,4; 147,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>120,3; 142,3</t>
+          <t>120,5; 141,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>105,55; 133,32</t>
+          <t>106,19; 134,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117,62; 141,54</t>
+          <t>116,65; 140,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>122,85; 139,75</t>
+          <t>123,12; 139,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>128,72; 146,27</t>
+          <t>128,23; 145,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>111,08; 130,44</t>
+          <t>112,25; 130,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>117,75; 136,92</t>
+          <t>118,21; 136,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>124,78; 134,84</t>
+          <t>125,76; 135,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>116,09; 126,84</t>
+          <t>115,88; 126,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>119,81; 130,08</t>
+          <t>119,81; 129,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>132,81; 143,79</t>
+          <t>132,54; 143,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>117,92; 127,75</t>
+          <t>117,7; 127,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>117,13; 127,56</t>
+          <t>117,22; 127,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>119,06; 129,39</t>
+          <t>119,0; 129,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>126,79; 136,14</t>
+          <t>126,94; 136,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>123,5; 130,57</t>
+          <t>123,27; 130,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>118,24; 125,6</t>
+          <t>118,07; 125,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>121,16; 128,18</t>
+          <t>121,28; 128,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>131,08; 138,57</t>
+          <t>130,99; 138,76</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>123,51; 131,05</t>
+          <t>124,34; 130,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>117,93; 125,73</t>
+          <t>118,02; 125,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>120,07; 127,55</t>
+          <t>120,5; 127,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>132,31; 139,24</t>
+          <t>132,08; 138,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>123,84; 130,98</t>
+          <t>123,93; 130,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>118,01; 125,06</t>
+          <t>117,8; 124,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>120,49; 127,16</t>
+          <t>120,12; 127,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>129,92; 136,81</t>
+          <t>129,79; 136,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>124,96; 129,97</t>
+          <t>124,81; 129,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>118,82; 124,31</t>
+          <t>118,85; 124,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>121,43; 126,42</t>
+          <t>121,37; 126,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>132,46; 137,25</t>
+          <t>132,35; 137,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>121,59; 130,63</t>
+          <t>121,51; 130,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>116,12; 125,64</t>
+          <t>116,54; 125,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122,04; 129,85</t>
+          <t>121,76; 129,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>134,82; 144,12</t>
+          <t>135,46; 144,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>121,02; 129,76</t>
+          <t>121,07; 129,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>115,37; 124,36</t>
+          <t>115,02; 123,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>119,83; 127,77</t>
+          <t>119,21; 127,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>131,87; 140,57</t>
+          <t>132,1; 141,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122,69; 129,4</t>
+          <t>122,87; 129,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>117,4; 123,47</t>
+          <t>117,19; 123,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>121,95; 127,72</t>
+          <t>121,9; 127,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>134,86; 140,73</t>
+          <t>134,58; 140,8</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>123,36; 131,03</t>
+          <t>123,36; 131,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>120,02; 127,82</t>
+          <t>120,17; 127,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>120,24; 128,0</t>
+          <t>119,73; 128,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>131,89; 139,5</t>
+          <t>131,64; 139,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>122,08; 129,18</t>
+          <t>122,16; 129,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>117,15; 125,18</t>
+          <t>116,5; 124,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>117,52; 125,51</t>
+          <t>117,33; 124,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>127,63; 135,37</t>
+          <t>127,48; 135,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>123,39; 128,84</t>
+          <t>123,74; 129,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>119,82; 125,58</t>
+          <t>119,7; 125,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>120,05; 125,39</t>
+          <t>119,99; 125,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>130,64; 136,15</t>
+          <t>130,85; 136,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>125,69; 129,7</t>
+          <t>125,43; 129,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>120,45; 124,9</t>
+          <t>120,64; 124,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>122,45; 126,47</t>
+          <t>122,29; 126,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>134,78; 138,78</t>
+          <t>134,8; 138,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>124,06; 128,17</t>
+          <t>124,2; 128,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>119,28; 123,59</t>
+          <t>119,37; 123,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>121,16; 124,99</t>
+          <t>121,1; 125,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>131,43; 135,37</t>
+          <t>131,22; 135,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>125,54; 128,37</t>
+          <t>125,42; 128,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>120,52; 123,72</t>
+          <t>120,54; 123,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>122,42; 125,3</t>
+          <t>122,29; 125,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>133,5; 136,46</t>
+          <t>133,6; 136,57</t>
         </is>
       </c>
     </row>
